--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Artn-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Artn-Ret.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8229576666666668</v>
+        <v>1.028010333333333</v>
       </c>
       <c r="N2">
-        <v>2.468873</v>
+        <v>3.084031</v>
       </c>
       <c r="O2">
-        <v>0.03362764644735265</v>
+        <v>0.04165745457248912</v>
       </c>
       <c r="P2">
-        <v>0.03362764644735265</v>
+        <v>0.04165745457248914</v>
       </c>
       <c r="Q2">
-        <v>1.719204925615222</v>
+        <v>2.147571497582111</v>
       </c>
       <c r="R2">
-        <v>15.472844330537</v>
+        <v>19.328143478239</v>
       </c>
       <c r="S2">
-        <v>0.02420048522173068</v>
+        <v>0.0299792200841283</v>
       </c>
       <c r="T2">
-        <v>0.02420048522173069</v>
+        <v>0.02997922008412832</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>69.305324</v>
       </c>
       <c r="O3">
-        <v>0.9439833204831614</v>
+        <v>0.9361395479363341</v>
       </c>
       <c r="P3">
-        <v>0.9439833204831615</v>
+        <v>0.9361395479363344</v>
       </c>
       <c r="Q3">
         <v>48.26090867863955</v>
@@ -632,10 +632,10 @@
         <v>434.348178107756</v>
       </c>
       <c r="S3">
-        <v>0.6793474063871477</v>
+        <v>0.6737025539619477</v>
       </c>
       <c r="T3">
-        <v>0.679347406387148</v>
+        <v>0.6737025539619479</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>1.643757</v>
       </c>
       <c r="O4">
-        <v>0.02238903306948598</v>
+        <v>0.02220299749117665</v>
       </c>
       <c r="P4">
-        <v>0.02238903306948598</v>
+        <v>0.02220299749117666</v>
       </c>
       <c r="Q4">
         <v>1.144633657103667</v>
@@ -694,10 +694,10 @@
         <v>10.301702913933</v>
       </c>
       <c r="S4">
-        <v>0.0161125003135505</v>
+        <v>0.01597861787635289</v>
       </c>
       <c r="T4">
-        <v>0.0161125003135505</v>
+        <v>0.0159786178763529</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8137800000000001</v>
+        <v>0.8137799999999999</v>
       </c>
       <c r="H5">
         <v>2.44134</v>
       </c>
       <c r="I5">
-        <v>0.2803396080775711</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="J5">
-        <v>0.2803396080775711</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8229576666666668</v>
+        <v>1.028010333333333</v>
       </c>
       <c r="N5">
-        <v>2.468873</v>
+        <v>3.084031</v>
       </c>
       <c r="O5">
-        <v>0.03362764644735265</v>
+        <v>0.04165745457248912</v>
       </c>
       <c r="P5">
-        <v>0.03362764644735265</v>
+        <v>0.04165745457248914</v>
       </c>
       <c r="Q5">
-        <v>0.6697064899800002</v>
+        <v>0.8365742490599999</v>
       </c>
       <c r="R5">
-        <v>6.027358409820001</v>
+        <v>7.52916824154</v>
       </c>
       <c r="S5">
-        <v>0.009427161225621967</v>
+        <v>0.01167823448836082</v>
       </c>
       <c r="T5">
-        <v>0.009427161225621967</v>
+        <v>0.01167823448836082</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8137800000000001</v>
+        <v>0.8137799999999999</v>
       </c>
       <c r="H6">
         <v>2.44134</v>
       </c>
       <c r="I6">
-        <v>0.2803396080775711</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="J6">
-        <v>0.2803396080775711</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>69.305324</v>
       </c>
       <c r="O6">
-        <v>0.9439833204831614</v>
+        <v>0.9361395479363341</v>
       </c>
       <c r="P6">
-        <v>0.9439833204831615</v>
+        <v>0.9361395479363344</v>
       </c>
       <c r="Q6">
         <v>18.79976218824</v>
@@ -818,10 +818,10 @@
         <v>169.19785969416</v>
       </c>
       <c r="S6">
-        <v>0.2646359140960136</v>
+        <v>0.2624369939743864</v>
       </c>
       <c r="T6">
-        <v>0.2646359140960137</v>
+        <v>0.2624369939743865</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8137800000000001</v>
+        <v>0.8137799999999999</v>
       </c>
       <c r="H7">
         <v>2.44134</v>
       </c>
       <c r="I7">
-        <v>0.2803396080775711</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="J7">
-        <v>0.2803396080775711</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>1.643757</v>
       </c>
       <c r="O7">
-        <v>0.02238903306948598</v>
+        <v>0.02220299749117665</v>
       </c>
       <c r="P7">
-        <v>0.02238903306948598</v>
+        <v>0.02220299749117666</v>
       </c>
       <c r="Q7">
-        <v>0.4458855238200001</v>
+        <v>0.44588552382</v>
       </c>
       <c r="R7">
         <v>4.01296971438</v>
       </c>
       <c r="S7">
-        <v>0.006276532755935476</v>
+        <v>0.006224379614823755</v>
       </c>
       <c r="T7">
-        <v>0.006276532755935478</v>
+        <v>0.006224379614823757</v>
       </c>
     </row>
   </sheetData>
